--- a/018_pandas/output.xlsx
+++ b/018_pandas/output.xlsx
@@ -5789,7 +5789,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>0.202</v>
       </c>
       <c r="J158" t="n">
-        <v>0.091</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="159">
@@ -5823,7 +5823,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>0.32</v>
       </c>
       <c r="F159" t="n">
-        <v>0.575</v>
+        <v>0.576</v>
       </c>
       <c r="G159" t="n">
         <v>0.295</v>
@@ -5849,7 +5849,7 @@
         <v>0.202</v>
       </c>
       <c r="J159" t="n">
-        <v>0.091</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="160">
@@ -5857,7 +5857,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>0.323</v>
       </c>
       <c r="F160" t="n">
-        <v>0.575</v>
+        <v>0.576</v>
       </c>
       <c r="G160" t="n">
         <v>0.295</v>
@@ -5883,7 +5883,7 @@
         <v>0.202</v>
       </c>
       <c r="J160" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="161">
@@ -5891,7 +5891,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>0.202</v>
       </c>
       <c r="J161" t="n">
-        <v>0.091</v>
+        <v>0.102</v>
       </c>
     </row>
   </sheetData>
